--- a/src/test/java/testcase/testdata/casedata.xlsx
+++ b/src/test/java/testcase/testdata/casedata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>sTestCaseName</t>
   </si>
@@ -30,10 +30,13 @@
     <t>youlu-login</t>
   </si>
   <si>
+    <t>18103835542</t>
+  </si>
+  <si>
     <t>1qaz!QAZ</t>
   </si>
   <si>
-    <t>QuestionAnswerCase</t>
+    <t>youlu-login2</t>
   </si>
   <si>
     <t>NO</t>
@@ -174,8 +177,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -204,22 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,9 +222,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,97 +341,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -372,19 +375,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,61 +477,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,97 +519,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +635,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -649,8 +678,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,41 +708,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -728,6 +722,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -736,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,16 +751,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,119 +769,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,6 +921,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1269,47 +1292,48 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>18103835542</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="27" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" customFormat="1" spans="1:3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18103835542</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1345,41 +1369,41 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1387,23 +1411,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1414,21 +1438,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="11"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1439,27 +1463,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1470,27 +1494,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9">
         <v>123456</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1501,23 +1525,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9">
         <v>775566</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="20"/>
@@ -1530,32 +1554,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="13"/>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20"/>
       <c r="K7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testcase/testdata/casedata.xlsx
+++ b/src/test/java/testcase/testdata/casedata.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="commonCasetest" sheetId="2" r:id="rId1"/>
-    <sheet name="commonCase" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="commonCasetest01" sheetId="4" r:id="rId2"/>
+    <sheet name="commonCase" sheetId="1" r:id="rId3"/>
+    <sheet name="elementManage" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>sTestCaseName</t>
   </si>
@@ -39,7 +40,7 @@
     <t>youlu-login2</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>TestCaseName</t>
   </si>
   <si>
     <t>caseStep</t>
@@ -48,21 +49,21 @@
     <t>action</t>
   </si>
   <si>
+    <t>pageElementName</t>
+  </si>
+  <si>
     <t>inputValue</t>
   </si>
   <si>
+    <t>locateWay</t>
+  </si>
+  <si>
+    <t>elementValue</t>
+  </si>
+  <si>
     <t>method</t>
   </si>
   <si>
-    <t>pageElementName</t>
-  </si>
-  <si>
-    <t>locateWay</t>
-  </si>
-  <si>
-    <t>elementValue</t>
-  </si>
-  <si>
     <t>校验方法</t>
   </si>
   <si>
@@ -79,15 +80,15 @@
   </si>
   <si>
     <t>openBrowser</t>
+  </si>
+  <si>
+    <t>chrome</t>
   </si>
   <si>
     <t>login(driver,string username,string passwd,string extpararms)
 {元素操作与数据封装}</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>输入值获取</t>
   </si>
   <si>
@@ -109,67 +110,73 @@
     <t>input</t>
   </si>
   <si>
+    <t>usernameText</t>
+  </si>
+  <si>
+    <t>xpath_by</t>
+  </si>
+  <si>
+    <t>//input[@name='username']</t>
+  </si>
+  <si>
+    <t>文本校验</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>passwdText</t>
+  </si>
+  <si>
+    <t>//input[@name='password']</t>
+  </si>
+  <si>
+    <t>数据库校验</t>
+  </si>
+  <si>
+    <t>输入验证码</t>
+  </si>
+  <si>
+    <t>vertifyText</t>
+  </si>
+  <si>
+    <t>775566</t>
+  </si>
+  <si>
+    <t>css_selector_by</t>
+  </si>
+  <si>
+    <t>//*[@id='vertify']</t>
+  </si>
+  <si>
+    <t>点击登录</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>loginButton</t>
+  </si>
+  <si>
+    <t>link_text_by</t>
+  </si>
+  <si>
+    <t>//input[@name='submit']</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>登录接口mock</t>
+  </si>
+  <si>
+    <t>fail(返回500)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>usernameText</t>
-  </si>
-  <si>
-    <t>xpath_by</t>
-  </si>
-  <si>
-    <t>//input[@name='username']</t>
-  </si>
-  <si>
-    <t>文本校验</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>passwdText</t>
-  </si>
-  <si>
-    <t>//input[@name='password']</t>
-  </si>
-  <si>
-    <t>数据库校验</t>
-  </si>
-  <si>
-    <t>输入验证码</t>
-  </si>
-  <si>
-    <t>vertifyText</t>
-  </si>
-  <si>
-    <t>css_selector_by</t>
-  </si>
-  <si>
-    <t>//*[@id='vertify']</t>
-  </si>
-  <si>
-    <t>点击登录</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>loginButton</t>
-  </si>
-  <si>
-    <t>link_text_by</t>
-  </si>
-  <si>
-    <t>//input[@name='submit']</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>登录接口mock</t>
-  </si>
-  <si>
-    <t>fail(返回500)</t>
   </si>
 </sst>
 </file>
@@ -177,12 +184,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,9 +214,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,37 +302,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +327,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -274,75 +350,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,187 +389,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,10 +671,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -671,30 +698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,10 +726,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -739,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,16 +771,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,145 +789,146 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,6 +946,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -940,6 +969,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1291,48 +1326,48 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="16.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1346,10 +1381,246 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="16.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16" style="22" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="28.375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="24" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="13" style="22" customWidth="1"/>
+    <col min="13" max="16380" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="22" customFormat="1" spans="1:12">
+      <c r="A1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="22" customFormat="1" spans="1:12">
+      <c r="A2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="25"/>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="25"/>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="25"/>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="25"/>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="25"/>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:H7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="http://member.niceloo.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H7" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1369,40 +1640,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1410,23 +1681,23 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
-        <v>21</v>
+      <c r="D2" s="8"/>
+      <c r="E2" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="1"/>
@@ -1437,21 +1708,21 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="20" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="1"/>
@@ -1462,28 +1733,28 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1493,28 +1764,28 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>35</v>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>123456</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1524,27 +1795,27 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>775566</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1553,25 +1824,25 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1595,17 +1866,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="31.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="http://member.niceloo.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/test/java/testcase/testdata/casedata.xlsx
+++ b/src/test/java/testcase/testdata/casedata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="76">
   <si>
     <t>sTestCaseName</t>
   </si>
@@ -98,88 +98,103 @@
     <t>chrome</t>
   </si>
   <si>
+    <t>URL跳转</t>
+  </si>
+  <si>
+    <t>fail(返回500)</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>yoululogin_caseStep02</t>
+  </si>
+  <si>
+    <t>访问网站首页</t>
+  </si>
+  <si>
+    <t>visitWebPage</t>
+  </si>
+  <si>
+    <t>http://member.niceloo.com</t>
+  </si>
+  <si>
+    <t>页面正常</t>
+  </si>
+  <si>
+    <t>fail(返回501)</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>yoululogin_caseStep03</t>
+  </si>
+  <si>
+    <t>输入用户名</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>usernameText</t>
+  </si>
+  <si>
+    <t>xpath_by</t>
+  </si>
+  <si>
+    <t>//input[@name='username']</t>
+  </si>
+  <si>
+    <t>后台验证OK</t>
+  </si>
+  <si>
+    <t>验证码生成mock</t>
+  </si>
+  <si>
+    <t>fail(返回502)</t>
+  </si>
+  <si>
+    <t>yoululogin_caseStep04</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>passwdText</t>
+  </si>
+  <si>
+    <t>//input[@name='password']</t>
+  </si>
+  <si>
+    <t>短信接口mock</t>
+  </si>
+  <si>
+    <t>fail(返回503)</t>
+  </si>
+  <si>
+    <t>yoululogin_caseStep05</t>
+  </si>
+  <si>
+    <t>点击登录</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>loginButton</t>
+  </si>
+  <si>
+    <t>link_text_by</t>
+  </si>
+  <si>
+    <t>//input[@name='submit']</t>
+  </si>
+  <si>
     <t>登录成功</t>
   </si>
   <si>
-    <t>登录接口mock</t>
-  </si>
-  <si>
-    <t>fail(返回500)</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>yoululogin_caseStep02</t>
-  </si>
-  <si>
-    <t>访问网站首页</t>
-  </si>
-  <si>
-    <t>visitWebPage</t>
-  </si>
-  <si>
-    <t>http://member.niceloo.com</t>
-  </si>
-  <si>
-    <t>fail(返回501)</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>yoululogin_caseStep03</t>
-  </si>
-  <si>
-    <t>输入用户名</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>usernameText</t>
-  </si>
-  <si>
-    <t>xpath_by</t>
-  </si>
-  <si>
-    <t>//input[@name='username']</t>
-  </si>
-  <si>
-    <t>fail(返回502)</t>
-  </si>
-  <si>
-    <t>yoululogin_caseStep04</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>passwdText</t>
-  </si>
-  <si>
-    <t>//input[@name='password']</t>
-  </si>
-  <si>
-    <t>fail(返回503)</t>
-  </si>
-  <si>
-    <t>yoululogin_caseStep05</t>
-  </si>
-  <si>
-    <t>点击登录</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>loginButton</t>
-  </si>
-  <si>
-    <t>link_text_by</t>
-  </si>
-  <si>
-    <t>//input[@name='submit']</t>
+    <t>三方授权mock</t>
   </si>
   <si>
     <t>NO</t>
@@ -220,6 +235,9 @@
   </si>
   <si>
     <t>//*[@id='vertify']</t>
+  </si>
+  <si>
+    <t>登录接口mock</t>
   </si>
   <si>
     <t>null</t>
@@ -239,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -276,7 +294,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,7 +329,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,14 +352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,36 +361,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,6 +383,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -384,14 +410,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,61 +462,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,121 +630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +724,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -742,21 +784,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -764,24 +791,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,6 +809,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -808,149 +826,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,9 +983,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,6 +1029,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1022,9 +1040,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1390,52 +1405,52 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="13" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="16.625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="13" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="202.5" spans="1:1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1452,27 +1467,27 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="30" customWidth="1"/>
-    <col min="5" max="5" width="16" style="30" customWidth="1"/>
-    <col min="6" max="6" width="12" style="30" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="26.75" style="30" customWidth="1"/>
-    <col min="9" max="9" width="13" style="30" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="30" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="30" customWidth="1"/>
-    <col min="12" max="12" width="13" style="30" customWidth="1"/>
-    <col min="13" max="16379" width="9" style="30"/>
+    <col min="1" max="1" width="17.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16" style="29" customWidth="1"/>
+    <col min="6" max="6" width="12" style="29" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="26.75" style="29" customWidth="1"/>
+    <col min="9" max="9" width="13" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="13" style="29" customWidth="1"/>
+    <col min="13" max="16379" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" s="30" customFormat="1" spans="1:12">
+    <row r="1" s="29" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1497,205 +1512,204 @@
       <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="30" customFormat="1" spans="1:12">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="29" customFormat="1" spans="1:12">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="12"/>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="I3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="K3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="31"/>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="31"/>
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="32"/>
+      <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="G6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="12"/>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="16"/>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="19" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" display="http://member.niceloo.com"/>
   </hyperlinks>
@@ -1729,8 +1743,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="10" t="s">
-        <v>53</v>
+      <c r="A1" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -1741,8 +1755,8 @@
       <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>54</v>
+      <c r="E1" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>12</v>
@@ -1753,194 +1767,194 @@
       <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="10">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10">
+        <v>775566</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="22" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="11">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11">
-        <v>775566</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1976,10 +1990,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1999,123 +2013,123 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="13" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>45</v>
+      <c r="G5" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>65</v>
+      <c r="E6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>52</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2167,19 +2181,19 @@
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2187,252 +2201,252 @@
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="12"/>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="I3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="15"/>
+      <c r="B7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="12"/>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="12"/>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="16"/>
-      <c r="B7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
